--- a/КТП/КТП 2020 2021/Накопленные и остаточные часы по группам 2020-2021.xlsx
+++ b/КТП/КТП 2020 2021/Накопленные и остаточные часы по группам 2020-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="22">
   <si>
     <t>Group</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Cum_hours_Practice</t>
   </si>
   <si>
-    <t>Cum_hours_Theory</t>
+    <t>Cum_hours</t>
   </si>
   <si>
     <t>Rest</t>
@@ -78,15 +78,18 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Cum_hours_Theory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -98,30 +101,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,24 +141,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,10 +155,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,9 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,14 +186,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -219,9 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,11 +238,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,19 +254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +284,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +314,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,61 +350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +380,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +445,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,6 +488,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,67 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,148 +550,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,10 +1018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A96" sqref="$A96:$XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1026,7 +1029,7 @@
     <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
     <col min="6" max="6" width="7.33333333333333" customWidth="1"/>
     <col min="7" max="7" width="19.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="18.5555555555556" customWidth="1"/>
+    <col min="8" max="10" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1061,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>145</v>
       </c>
@@ -1087,13 +1090,21 @@
         <v>8</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2"/>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <f>144-M2</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>145</v>
       </c>
@@ -1119,13 +1130,21 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3"/>
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="0">144-M3</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>145</v>
       </c>
@@ -1151,13 +1170,21 @@
         <v>24</v>
       </c>
       <c r="I4">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J4">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4"/>
+      <c r="M4">
+        <v>42</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>145</v>
       </c>
@@ -1183,13 +1210,21 @@
         <v>32</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="J5">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5"/>
+      <c r="M5">
+        <v>62</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>145</v>
       </c>
@@ -1215,13 +1250,21 @@
         <v>40</v>
       </c>
       <c r="I6">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="J6">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6"/>
+      <c r="M6">
+        <v>74</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>145</v>
       </c>
@@ -1247,13 +1290,21 @@
         <v>48</v>
       </c>
       <c r="I7">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="J7">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7"/>
+      <c r="M7">
+        <v>88</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>145</v>
       </c>
@@ -1279,13 +1330,21 @@
         <v>56</v>
       </c>
       <c r="I8">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="J8">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8"/>
+      <c r="M8">
+        <v>108</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>145</v>
       </c>
@@ -1311,13 +1370,21 @@
         <v>64</v>
       </c>
       <c r="I9">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9"/>
+      <c r="M9">
+        <v>124</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>145</v>
       </c>
@@ -1343,10 +1410,18 @@
         <v>72</v>
       </c>
       <c r="I10">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="J10">
         <v>1</v>
+      </c>
+      <c r="K10"/>
+      <c r="M10">
+        <v>140</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1401,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1646,7 +1721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1666,16 +1741,13 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>312</v>
       </c>
@@ -1695,16 +1767,13 @@
         <v>8</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>27</v>
-      </c>
-      <c r="I26">
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>312</v>
       </c>
@@ -1724,16 +1793,13 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="H27">
-        <v>51</v>
-      </c>
-      <c r="I27">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>312</v>
       </c>
@@ -1753,16 +1819,13 @@
         <v>8</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H28">
-        <v>72</v>
-      </c>
-      <c r="I28">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>312</v>
       </c>
@@ -1782,16 +1845,13 @@
         <v>8</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="H29">
-        <v>102</v>
-      </c>
-      <c r="I29">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>312</v>
       </c>
@@ -1811,16 +1871,13 @@
         <v>8</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="H30">
-        <v>120</v>
-      </c>
-      <c r="I30">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>312</v>
       </c>
@@ -1840,16 +1897,13 @@
         <v>8</v>
       </c>
       <c r="G31">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="H31">
-        <v>141</v>
-      </c>
-      <c r="I31">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>312</v>
       </c>
@@ -1869,16 +1923,13 @@
         <v>8</v>
       </c>
       <c r="G32">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="H32">
-        <v>171</v>
-      </c>
-      <c r="I32">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>312</v>
       </c>
@@ -1898,16 +1949,13 @@
         <v>8</v>
       </c>
       <c r="G33">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="H33">
-        <v>195</v>
-      </c>
-      <c r="I33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>312</v>
       </c>
@@ -1927,12 +1975,9 @@
         <v>8</v>
       </c>
       <c r="G34">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="H34">
-        <v>216</v>
-      </c>
-      <c r="I34">
         <v>0</v>
       </c>
     </row>
@@ -1941,7 +1986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1967,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>141</v>
       </c>
@@ -2001,11 +2046,11 @@
       <c r="I38">
         <v>12</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>141</v>
       </c>
@@ -2033,11 +2078,11 @@
       <c r="I39">
         <v>31</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>141</v>
       </c>
@@ -2065,11 +2110,11 @@
       <c r="I40">
         <v>47</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>141</v>
       </c>
@@ -2097,11 +2142,11 @@
       <c r="I41">
         <v>64</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>141</v>
       </c>
@@ -2129,11 +2174,11 @@
       <c r="I42">
         <v>76</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>141</v>
       </c>
@@ -2161,11 +2206,11 @@
       <c r="I43">
         <v>91</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>141</v>
       </c>
@@ -2193,11 +2238,11 @@
       <c r="I44">
         <v>108</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>141</v>
       </c>
@@ -2225,11 +2270,11 @@
       <c r="I45">
         <v>127</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>141</v>
       </c>
@@ -2257,11 +2302,11 @@
       <c r="I46">
         <v>143</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>141</v>
       </c>
@@ -2289,7 +2334,7 @@
       <c r="I47" t="s">
         <v>20</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2313,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -2581,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
         <v>9</v>
@@ -2853,7 +2898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2879,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>147</v>
       </c>
@@ -2913,11 +2958,11 @@
       <c r="I74">
         <v>12</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>147</v>
       </c>
@@ -2945,11 +2990,11 @@
       <c r="I75">
         <v>29</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>147</v>
       </c>
@@ -2977,11 +3022,11 @@
       <c r="I76">
         <v>48</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>147</v>
       </c>
@@ -3009,11 +3054,11 @@
       <c r="I77">
         <v>64</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>147</v>
       </c>
@@ -3041,11 +3086,11 @@
       <c r="I78">
         <v>76</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>147</v>
       </c>
@@ -3073,11 +3118,11 @@
       <c r="I79">
         <v>92</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>147</v>
       </c>
@@ -3105,11 +3150,11 @@
       <c r="I80">
         <v>108</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>147</v>
       </c>
@@ -3137,11 +3182,11 @@
       <c r="I81">
         <v>125</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>147</v>
       </c>
@@ -3169,11 +3214,11 @@
       <c r="I82">
         <v>141</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>147</v>
       </c>
@@ -3201,7 +3246,7 @@
       <c r="I83" t="s">
         <v>20</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3225,7 +3270,7 @@
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -3493,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
         <v>9</v>
